--- a/Docs/TechnicalBackground/ESPStudy.xlsx
+++ b/Docs/TechnicalBackground/ESPStudy.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IDF" sheetId="1" r:id="rId1"/>
+    <sheet name="MQTT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t xml:space="preserve">IDF is </t>
@@ -31,12 +32,24 @@
       <t xml:space="preserve">IOT development flatform </t>
     </r>
   </si>
+  <si>
+    <t>http://esp-idf.readthedocs.io/en/latest/get-started/index.html#what-you-need</t>
+  </si>
+  <si>
+    <t>https://esp-idf.readthedocs.io/en/v2.0/windows-setup.html</t>
+  </si>
+  <si>
+    <t>http://www.instructables.com/id/Hacking-a-Sonoff-Touch-Panel-to-Work-With-MQTT-and/</t>
+  </si>
+  <si>
+    <t>http://www.iotsharing.com/2017/05/how-to-use-mqtt-to-build-smart-home-arduino-esp32.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +61,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,13 +91,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -87,6 +111,603 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="1104900"/>
+          <a:ext cx="1600200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Node 1  - Smart Phone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(Client)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="3019425"/>
+          <a:ext cx="1619250" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sever -Brocker</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="2105025"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962649" y="895350"/>
+          <a:ext cx="1819275" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Node 2 (Client)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Temperature</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  sensor in room 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5038725" y="2038350"/>
+          <a:ext cx="1833562" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="4791075"/>
+          <a:ext cx="1600200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Node 2 (Client)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bulb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> in room 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="3752850"/>
+          <a:ext cx="38100" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2457596" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="2514600"/>
+          <a:ext cx="2457596" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- Subcribe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> topic Temperature of Node 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Publish topic  bulb on/off network</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2380716" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="2495550"/>
+          <a:ext cx="2380716" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Publish</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> topic  temperature to network</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2310954" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="4162425"/>
+          <a:ext cx="2310954" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Subcribe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> topic bulb on/off of Node 1 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+  <dimension ref="B4:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,13 +1008,57 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" location="what-you-need"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>